--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/23.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/23.xlsx
@@ -479,13 +479,13 @@
         <v>-15.29545340239013</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.1678513263158</v>
+        <v>-14.67043864780398</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5124616316699339</v>
+        <v>-0.6783149240689197</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.46740357422182</v>
+        <v>-11.3847288651302</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.79760191317737</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37413364989003</v>
+        <v>-14.83421026405113</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5038076194915529</v>
+        <v>-0.6000884145896064</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.22103261934622</v>
+        <v>-11.171494528747</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.23850435966391</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.69048296345466</v>
+        <v>-15.18219058128137</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4258691406747576</v>
+        <v>-0.4021066110170248</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.797902483804471</v>
+        <v>-10.7471206244353</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.66563187213994</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.14884448594349</v>
+        <v>-15.65030586938728</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3662729781392206</v>
+        <v>-0.38818949309627</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.580661902751711</v>
+        <v>-10.5540615267312</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.06086110130651</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.59357692117408</v>
+        <v>-16.15792063516669</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3496850304387537</v>
+        <v>-0.3239324707490784</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.390653311609741</v>
+        <v>-10.31546739974359</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.43825232563916</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06822526839802</v>
+        <v>-16.68741263899461</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.368354654291055</v>
+        <v>-0.2992142029838997</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.249531379278775</v>
+        <v>-10.18950635410334</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.79549776009745</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.57230511241016</v>
+        <v>-17.22339842503204</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.150367811976316</v>
+        <v>-0.08880780401452</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.047229115768424</v>
+        <v>-9.959762623836731</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.1555848081849</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.19418949739214</v>
+        <v>-17.86204095765143</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04983968307935906</v>
+        <v>-0.01605387712304824</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.070703614763639</v>
+        <v>-9.901266214739898</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.5349553529072</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.61594494113551</v>
+        <v>-18.29479393578185</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1747402521894258</v>
+        <v>0.1748188060064761</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.756724008013364</v>
+        <v>-9.637770527747319</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.956807181568342</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.14526674502649</v>
+        <v>-18.89385843691071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3006096517097802</v>
+        <v>0.3886422960175462</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.679741267304015</v>
+        <v>-9.501741501221787</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.444410909276588</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.66669389030392</v>
+        <v>-19.43013225361065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3823187137449925</v>
+        <v>0.3821354215052084</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.177913299380656</v>
+        <v>-8.982252016764937</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.001604114724769</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.42780182370482</v>
+        <v>-20.21538239345169</v>
       </c>
       <c r="F13" t="n">
-        <v>0.518413201784735</v>
+        <v>0.5465616528944461</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.587110041344924</v>
+        <v>-8.414870888513056</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.637123073254829</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.25290493339608</v>
+        <v>-21.06426112510353</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7581201745138977</v>
+        <v>0.7809269660641844</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.009503824573653</v>
+        <v>-7.945302354791708</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.338517343866462</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.04843253096788</v>
+        <v>-21.88377382148137</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8387032985047216</v>
+        <v>0.8668124727059074</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.462455042634971</v>
+        <v>-7.347756560792488</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.09577939350382</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.93691547871594</v>
+        <v>-22.81201809295975</v>
       </c>
       <c r="F16" t="n">
-        <v>1.084131607575718</v>
+        <v>1.141606817050896</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.964436934838553</v>
+        <v>-6.941096542225635</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.894230862341681</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.57653993404847</v>
+        <v>-23.41947476021016</v>
       </c>
       <c r="F17" t="n">
-        <v>1.261322834235639</v>
+        <v>1.294682021876357</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.842639241501976</v>
+        <v>-6.852225990535998</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.714974546263493</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.35728632171196</v>
+        <v>-24.24456477759858</v>
       </c>
       <c r="F18" t="n">
-        <v>1.583589868684726</v>
+        <v>1.62108622402343</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.44460705050782</v>
+        <v>-6.371267153342349</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.54547056408536</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.15610008729703</v>
+        <v>-25.01681426071779</v>
       </c>
       <c r="F19" t="n">
-        <v>1.834674052583349</v>
+        <v>1.837685282236946</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.191742313422723</v>
+        <v>-6.192439388827213</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.364220336577103</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.90772919344053</v>
+        <v>-25.81293101191747</v>
       </c>
       <c r="F20" t="n">
-        <v>2.058814277233699</v>
+        <v>2.017625892493629</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.954640708959063</v>
+        <v>-5.956804122281827</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.159626825707825</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.48698504036986</v>
+        <v>-26.38145117051658</v>
       </c>
       <c r="F21" t="n">
-        <v>2.414191745569512</v>
+        <v>2.342157895334334</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.700427464681269</v>
+        <v>-5.677178718188242</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.921361748912941</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.06354387291379</v>
+        <v>-26.98931369915508</v>
       </c>
       <c r="F22" t="n">
-        <v>2.703767299822809</v>
+        <v>2.572111102446411</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.412409894466137</v>
+        <v>-5.198956172288514</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.64890360492495</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.56435064121549</v>
+        <v>-27.48103440928463</v>
       </c>
       <c r="F23" t="n">
-        <v>2.9003089500828</v>
+        <v>2.787453299587122</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.259792920240136</v>
+        <v>-5.119407340222186</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.353321211913567</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.77988922289883</v>
+        <v>-27.70345954226271</v>
       </c>
       <c r="F24" t="n">
-        <v>3.026832964745241</v>
+        <v>2.81649202729007</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.080546202034064</v>
+        <v>-4.866804449193923</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.050704778896108</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.08428526396896</v>
+        <v>-28.04023284826043</v>
       </c>
       <c r="F25" t="n">
-        <v>3.3337165433553</v>
+        <v>3.132226002621136</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.826398419270478</v>
+        <v>-4.621677263088286</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.76815033615438</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.05218293740105</v>
+        <v>-28.01424462711961</v>
       </c>
       <c r="F26" t="n">
-        <v>3.413108267787527</v>
+        <v>3.137096339278258</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.78644071099753</v>
+        <v>-4.666596954138249</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.52823472481151</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.98179871732393</v>
+        <v>-27.95734547896947</v>
       </c>
       <c r="F27" t="n">
-        <v>3.424341463625728</v>
+        <v>3.152047749123509</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.72925353218487</v>
+        <v>-4.516467517452176</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.351866382821044</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.89549425699127</v>
+        <v>-27.84222486008217</v>
       </c>
       <c r="F28" t="n">
-        <v>3.487865317013783</v>
+        <v>3.269459521008109</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.72781337887228</v>
+        <v>-4.55965902452703</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.24727735458469</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.75107306434419</v>
+        <v>-27.74312921987314</v>
       </c>
       <c r="F29" t="n">
-        <v>3.498758112978099</v>
+        <v>3.233612795827463</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.653789498605161</v>
+        <v>-4.459437446273617</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.214514114571138</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.63548112255459</v>
+        <v>-27.58181895656023</v>
       </c>
       <c r="F30" t="n">
-        <v>3.471552307672992</v>
+        <v>3.257833556084656</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.613308098218544</v>
+        <v>-4.392038271244411</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.247037373726577</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.23137410304187</v>
+        <v>-27.19843705244597</v>
       </c>
       <c r="F31" t="n">
-        <v>3.36594979295163</v>
+        <v>3.123716005774014</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.801549228476882</v>
+        <v>-4.56883672881908</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.329607422272578</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89934021067286</v>
+        <v>-26.89436831894688</v>
       </c>
       <c r="F32" t="n">
-        <v>3.317979595339545</v>
+        <v>3.088864295609339</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.891454072091015</v>
+        <v>-4.729151977116016</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.44850932267236</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.48036033513194</v>
+        <v>-26.43408222794032</v>
       </c>
       <c r="F33" t="n">
-        <v>3.197582778407032</v>
+        <v>3.009655863416897</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.041125278177627</v>
+        <v>-4.899731590840864</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.586984244540479</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.02428996564041</v>
+        <v>-25.95318885226088</v>
       </c>
       <c r="F34" t="n">
-        <v>3.11685563908495</v>
+        <v>2.989519901646322</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.960162477404393</v>
+        <v>-4.815849206533926</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.73494603816499</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.66888631269892</v>
+        <v>-25.59705203036025</v>
       </c>
       <c r="F35" t="n">
-        <v>2.863022071589564</v>
+        <v>2.778707641288849</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.058315471808814</v>
+        <v>-5.024304852379888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.883755652885595</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.97436583155103</v>
+        <v>-24.84569786257643</v>
       </c>
       <c r="F36" t="n">
-        <v>2.742049193332015</v>
+        <v>2.676954263602954</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.374258923985347</v>
+        <v>-5.349347455031421</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.026423285826326</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.54394328332645</v>
+        <v>-24.39292675340102</v>
       </c>
       <c r="F37" t="n">
-        <v>2.587167250714396</v>
+        <v>2.498898944955479</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.451307126208905</v>
+        <v>-5.518892776831774</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.159826096494149</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16983072962412</v>
+        <v>-24.00865457269352</v>
       </c>
       <c r="F38" t="n">
-        <v>2.529534933605118</v>
+        <v>2.488529841104832</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.55814031739739</v>
+        <v>-5.622033938618892</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.278368535714637</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.69316616776256</v>
+        <v>-23.54975626578817</v>
       </c>
       <c r="F39" t="n">
-        <v>2.489629594543537</v>
+        <v>2.297460773432682</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.491160096059119</v>
+        <v>-5.577533201259865</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.381103396008603</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.33388719317992</v>
+        <v>-23.17555206596596</v>
       </c>
       <c r="F40" t="n">
-        <v>2.473159477568646</v>
+        <v>2.385310125500664</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.544746891590304</v>
+        <v>-5.63613434877943</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.463707551910888</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.81837776878695</v>
+        <v>-22.59112475941415</v>
       </c>
       <c r="F41" t="n">
-        <v>2.557238246418211</v>
+        <v>2.32869900801304</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.476012301671242</v>
+        <v>-5.618197893886266</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.525751200259191</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.20048653617169</v>
+        <v>-22.00156527014838</v>
       </c>
       <c r="F42" t="n">
-        <v>2.682636323036263</v>
+        <v>2.500888974987422</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.487245497509443</v>
+        <v>-5.636422379441949</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.568153886460578</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54881716222478</v>
+        <v>-21.27447113953028</v>
       </c>
       <c r="F43" t="n">
-        <v>2.793423389682949</v>
+        <v>2.61230447217051</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.481393238139192</v>
+        <v>-5.621876830984791</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.593700713063749</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.29517997927202</v>
+        <v>-21.07714395109979</v>
       </c>
       <c r="F44" t="n">
-        <v>2.743567900461656</v>
+        <v>2.560851722002527</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.564961407177929</v>
+        <v>-5.726719992141334</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.610757598914886</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.85679731091966</v>
+        <v>-20.62361348835956</v>
       </c>
       <c r="F45" t="n">
-        <v>2.82081248722784</v>
+        <v>2.628172343214682</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.548386551780304</v>
+        <v>-5.708613337311226</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.625158557405941</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.50432633381471</v>
+        <v>-20.23630389339277</v>
       </c>
       <c r="F46" t="n">
-        <v>2.86215797960201</v>
+        <v>2.773811120026043</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.651422975144688</v>
+        <v>-5.768366607480864</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.647915628464226</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.02267360457045</v>
+        <v>-19.72660745146154</v>
       </c>
       <c r="F47" t="n">
-        <v>2.894548336832441</v>
+        <v>2.664542760508998</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962993598172085</v>
+        <v>-6.071152295301463</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.685436060329716</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.56664251198745</v>
+        <v>-19.24657816776965</v>
       </c>
       <c r="F48" t="n">
-        <v>2.860351241809852</v>
+        <v>2.708087759760578</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089373597503267</v>
+        <v>-6.157129448063078</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.743391754736615</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09656337845527</v>
+        <v>-18.64968698891252</v>
       </c>
       <c r="F49" t="n">
-        <v>2.889206677273016</v>
+        <v>2.65993426990871</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.342068134651422</v>
+        <v>-6.510883470846516</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.828573250398206</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60920240517202</v>
+        <v>-18.14213768464732</v>
       </c>
       <c r="F50" t="n">
-        <v>2.941314042583087</v>
+        <v>2.696095210357557</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.432732331830374</v>
+        <v>-6.518542468008926</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.942328859048095</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.91913330699032</v>
+        <v>-17.4394476065262</v>
       </c>
       <c r="F51" t="n">
-        <v>2.919030943146469</v>
+        <v>2.701620162156765</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.649632513009251</v>
+        <v>-6.851663021513804</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.088506246370936</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.54326638470721</v>
+        <v>-17.07336063446586</v>
       </c>
       <c r="F52" t="n">
-        <v>2.799890987286761</v>
+        <v>2.558023784588714</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793962059536439</v>
+        <v>-6.833896766557582</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.262577608501946</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11974348008021</v>
+        <v>-16.61230209759163</v>
       </c>
       <c r="F53" t="n">
-        <v>2.868442284966039</v>
+        <v>2.63073843457166</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852746499295788</v>
+        <v>-6.913327767898334</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.463095608480548</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.84435998210735</v>
+        <v>-16.31466168478783</v>
       </c>
       <c r="F54" t="n">
-        <v>2.625580067252021</v>
+        <v>2.384917356415412</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.08705944325416</v>
+        <v>-7.242350430613752</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.685640661854388</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.50697133787607</v>
+        <v>-15.88249786028529</v>
       </c>
       <c r="F55" t="n">
-        <v>2.464073419396488</v>
+        <v>2.346137955398219</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.300987671687964</v>
+        <v>-7.350885621171661</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.924808726138786</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.10042915003479</v>
+        <v>-15.4926745431729</v>
       </c>
       <c r="F56" t="n">
-        <v>2.409138116672605</v>
+        <v>2.185861984009809</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.497987552547416</v>
+        <v>-7.533195938242696</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.177914542334516</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.5602800116937</v>
+        <v>-14.92990190552131</v>
       </c>
       <c r="F57" t="n">
-        <v>2.365226532941456</v>
+        <v>2.132654865261034</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.764991976701578</v>
+        <v>-7.838037117609446</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.434415309681112</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.31030867353662</v>
+        <v>-14.69806340680002</v>
       </c>
       <c r="F58" t="n">
-        <v>2.18701410665988</v>
+        <v>1.975599600371688</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721800469626723</v>
+        <v>-7.852072066255777</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.693543142392191</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.93454648967624</v>
+        <v>-14.31944710092015</v>
       </c>
       <c r="F59" t="n">
-        <v>2.23752421102326</v>
+        <v>2.008356542081687</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.858824511168228</v>
+        <v>-7.993167813981058</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.949155767039091</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.82182176220898</v>
+        <v>-14.23055036462483</v>
       </c>
       <c r="F60" t="n">
-        <v>2.056876616413124</v>
+        <v>1.834647867977665</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821380525040891</v>
+        <v>-7.933990605136456</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.199107405065112</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.49346680693849</v>
+        <v>-13.95608332785088</v>
       </c>
       <c r="F61" t="n">
-        <v>1.935196753802122</v>
+        <v>1.727500461520979</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.151228002835338</v>
+        <v>-8.175818530925978</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.443305312890393</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.19204271861343</v>
+        <v>-13.63551829277122</v>
       </c>
       <c r="F62" t="n">
-        <v>1.856119244638096</v>
+        <v>1.67403149671537</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192926987386236</v>
+        <v>-8.365722383645215</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.678132592930348</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.86464350145039</v>
+        <v>-13.24773737490213</v>
       </c>
       <c r="F63" t="n">
-        <v>1.787698869987236</v>
+        <v>1.614147303517315</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.313153604381807</v>
+        <v>-8.411479982077047</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.906274208654821</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.6207862687204</v>
+        <v>-13.06935474868362</v>
       </c>
       <c r="F64" t="n">
-        <v>1.67183198983796</v>
+        <v>1.516845308797607</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.497781259055827</v>
+        <v>-8.569386246651106</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.12417342628723</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.40878260880433</v>
+        <v>-12.8365343272492</v>
       </c>
       <c r="F65" t="n">
-        <v>1.595818079538898</v>
+        <v>1.47576166248027</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.73036601903909</v>
+        <v>-8.777540769531708</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.33312522466222</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.17264983475095</v>
+        <v>-12.6156409937036</v>
       </c>
       <c r="F66" t="n">
-        <v>1.526821643563002</v>
+        <v>1.369216501954304</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.851653112564841</v>
+        <v>-8.831559611056671</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.53227810173594</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.99194987092945</v>
+        <v>-12.42726894041684</v>
       </c>
       <c r="F67" t="n">
-        <v>1.576389102121777</v>
+        <v>1.394563200255885</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.816002771926821</v>
+        <v>-8.78567108959642</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.7174395901747</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.90139041217323</v>
+        <v>-12.33577992815886</v>
       </c>
       <c r="F68" t="n">
-        <v>1.438579522409768</v>
+        <v>1.281183857646538</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.829291459311173</v>
+        <v>-8.775288893442932</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.887320164689</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.75253092886281</v>
+        <v>-12.21086626674595</v>
       </c>
       <c r="F69" t="n">
-        <v>1.326457040873226</v>
+        <v>1.117346779885177</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.901901370871386</v>
+        <v>-8.780656737608039</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.03299814567016</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.65194276612982</v>
+        <v>-12.12846331266013</v>
       </c>
       <c r="F70" t="n">
-        <v>1.373641700314807</v>
+        <v>1.245520424705676</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.84360134631718</v>
+        <v>-8.703019381756604</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.1512140940411</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.38445392677052</v>
+        <v>-11.89039287778618</v>
       </c>
       <c r="F71" t="n">
-        <v>1.312212615381428</v>
+        <v>1.171745298192549</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.699572922755351</v>
+        <v>-8.503230840391865</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.23487843528554</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.32837959369941</v>
+        <v>-11.8603722273701</v>
       </c>
       <c r="F72" t="n">
-        <v>1.364058134634663</v>
+        <v>1.156322565444996</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.702348490957797</v>
+        <v>-8.493555628591828</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.27634292945848</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.3018022189307</v>
+        <v>-11.82828299310503</v>
       </c>
       <c r="F73" t="n">
-        <v>1.337349836837542</v>
+        <v>1.082063023726726</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.586075749420428</v>
+        <v>-8.40505166138176</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.274338716941</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49734885417472</v>
+        <v>-11.99947794506344</v>
       </c>
       <c r="F74" t="n">
-        <v>1.384429757856389</v>
+        <v>1.149684767904241</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.471923960943418</v>
+        <v>-8.262921621731982</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.22523627965946</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.625954544989</v>
+        <v>-12.13239100351265</v>
       </c>
       <c r="F75" t="n">
-        <v>1.316297413868047</v>
+        <v>1.094605449849099</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.341668639971085</v>
+        <v>-8.066694186740191</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.13274962842045</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.96346101994586</v>
+        <v>-12.44752273291299</v>
       </c>
       <c r="F76" t="n">
-        <v>1.342115435071931</v>
+        <v>1.089276882592517</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.145991081698647</v>
+        <v>-7.889097098692178</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.00041164335433</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.57601059300169</v>
+        <v>-12.99475480709146</v>
       </c>
       <c r="F77" t="n">
-        <v>1.316035567811212</v>
+        <v>1.05797318649795</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.97480922204308</v>
+        <v>-7.706524935564308</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.83221230327518</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.10565970446372</v>
+        <v>-13.53129046984824</v>
       </c>
       <c r="F78" t="n">
-        <v>1.344026911286823</v>
+        <v>1.081552423915898</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.8379815650442</v>
+        <v>-7.56029700512507</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.63782752327708</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.60117718241737</v>
+        <v>-14.02628425568821</v>
       </c>
       <c r="F79" t="n">
-        <v>1.40370162763941</v>
+        <v>1.037562286367699</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662780368416222</v>
+        <v>-7.397389480865471</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.42122515267616</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15935442177152</v>
+        <v>-14.55458485995755</v>
       </c>
       <c r="F80" t="n">
-        <v>1.390556955586317</v>
+        <v>1.199540257125534</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.395959236501845</v>
+        <v>-7.187703158552387</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.19203036089694</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.94368810041364</v>
+        <v>-15.31859928458931</v>
       </c>
       <c r="F81" t="n">
-        <v>1.453033424747034</v>
+        <v>1.116391041777731</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280445848529296</v>
+        <v>-7.064844988685629</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.955082352518049</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69788329791412</v>
+        <v>-16.0532214893414</v>
       </c>
       <c r="F82" t="n">
-        <v>1.486314058570702</v>
+        <v>1.165028946834744</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.195385156966601</v>
+        <v>-6.950706292511462</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.717293909979638</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.56659686837116</v>
+        <v>-16.88576102704676</v>
       </c>
       <c r="F83" t="n">
-        <v>1.44253339786797</v>
+        <v>1.10030060158525</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.93543748404413</v>
+        <v>-6.757450810264743</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.486537667147966</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63727230246468</v>
+        <v>-17.96639970360283</v>
       </c>
       <c r="F84" t="n">
-        <v>1.526769274351635</v>
+        <v>1.181276494661326</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747432015236944</v>
+        <v>-6.559717760446154</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.264453084842296</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.4493092939199</v>
+        <v>-18.79367613556582</v>
       </c>
       <c r="F85" t="n">
-        <v>1.51831164671588</v>
+        <v>1.177086957751974</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539984476709795</v>
+        <v>-6.339858718825049</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.058789588092141</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.5368607063764</v>
+        <v>-19.82380470775851</v>
       </c>
       <c r="F86" t="n">
-        <v>1.513965002172427</v>
+        <v>1.209398761165353</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242815386808296</v>
+        <v>-6.05421085542427</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.87005950308717</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.59621129851182</v>
+        <v>-20.88972763592048</v>
       </c>
       <c r="F87" t="n">
-        <v>1.536797978328397</v>
+        <v>1.246148855242079</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.970704964545861</v>
+        <v>-5.730765513719427</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.701285015233607</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.95851777840479</v>
+        <v>-22.24382524193168</v>
       </c>
       <c r="F88" t="n">
-        <v>1.588983897455517</v>
+        <v>1.324938333743586</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659919879688968</v>
+        <v>-5.525504389766845</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.554726030649475</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.42524846576336</v>
+        <v>-23.70711265364288</v>
       </c>
       <c r="F89" t="n">
-        <v>1.382439727824447</v>
+        <v>1.145063185001111</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320240082460385</v>
+        <v>-5.114942864953157</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.429451918189361</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.91389566807898</v>
+        <v>-25.20015886971332</v>
       </c>
       <c r="F90" t="n">
-        <v>1.233619521422547</v>
+        <v>1.002409453237664</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.127036969425034</v>
+        <v>-4.966947473630286</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.330470026993455</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56787247067992</v>
+        <v>-26.67698372256286</v>
       </c>
       <c r="F91" t="n">
-        <v>1.068512490285539</v>
+        <v>0.8313585166105133</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087969537745323</v>
+        <v>-4.943983574445898</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.254251108206374</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26871971745424</v>
+        <v>-28.35941009923887</v>
       </c>
       <c r="F92" t="n">
-        <v>0.983739829385363</v>
+        <v>0.7727966459994725</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.842004444257816</v>
+        <v>-4.67722790404573</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.199986593120185</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.16190598527635</v>
+        <v>-30.30598677804954</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8606721826731379</v>
+        <v>0.6955520592332888</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.883768890322921</v>
+        <v>-4.760547319330475</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.159800062204106</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.30315211504065</v>
+        <v>-32.45850538056057</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7693926472606237</v>
+        <v>0.6899223690113465</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.921147414936049</v>
+        <v>-4.773678899080726</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.126554411539891</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39497480157743</v>
+        <v>-34.58553326943876</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3583205226361087</v>
+        <v>0.263911926844422</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.924957275062992</v>
+        <v>-4.820680266282523</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.092563335023693</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41325802305224</v>
+        <v>-36.6303414964709</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07802741109759528</v>
+        <v>0.08778117671468121</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.101637901912085</v>
+        <v>-4.994925724803054</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.048686947033815</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.5472772016479</v>
+        <v>-38.81862827034552</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2492408830370312</v>
+        <v>-0.2268268605719962</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.187732885399276</v>
+        <v>-5.085707752707584</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.990565278050065</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89191225605842</v>
+        <v>-41.19725094293315</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5121997856130993</v>
+        <v>-0.4860806414438558</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.394290147333188</v>
+        <v>-5.314037514267286</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.91585538534769</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31587357338694</v>
+        <v>-43.60580261981697</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4288672780255129</v>
+        <v>-0.368786700284832</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.71386016739688</v>
+        <v>-5.652355712000329</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.821271088540266</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79969289930785</v>
+        <v>-46.07656891980467</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5739430858146795</v>
+        <v>-0.4979291755156179</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.958188723029171</v>
+        <v>-5.849997115699026</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.713842872845549</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20270653208962</v>
+        <v>-48.48479328911745</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.600009860772556</v>
+        <v>-0.532623778046192</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.315438390671351</v>
+        <v>-6.212025473878435</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.58080489151182</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49418683696273</v>
+        <v>-50.76826110465142</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7241117994092775</v>
+        <v>-0.664633467599316</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.634576364741266</v>
+        <v>-6.496717599171768</v>
       </c>
     </row>
   </sheetData>
